--- a/biology/Origine et évolution du vivant/Sycon_ciliatum/Sycon_ciliatum.xlsx
+++ b/biology/Origine et évolution du vivant/Sycon_ciliatum/Sycon_ciliatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éponge petit œuf
-Sycon ciliatum, parfois appelée « Éponge petit œuf »[1], est une espèce d'éponges calcaires marines de la famille des Sycettidae.
+Sycon ciliatum, parfois appelée « Éponge petit œuf », est une espèce d'éponges calcaires marines de la famille des Sycettidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sycon ciliatum a l'aspect d'un petit sac rigide, cylindrique, de couleurs variables (de blanc sale à brunâtre), finement hérissé, long de 2 à 5 cm. Il se termine par une couronne de longs spicules entourant l'oscule par lequel l'éponge expulse l'eau filtrée.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sycon ciliatum vit en mer du Nord, Manche, océan Atlantique[2] et Méditerranée.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sycon ciliatum vit en mer du Nord, Manche, océan Atlantique et Méditerranée.
 Souvent solitaire cette éponge se tient fixée dans le bas de l'estran, dans des endroits protégés des vagues et du soleil notamment sous les laminaires.</t>
         </is>
       </c>
